--- a/7rmartSupermarket/src/main/resources/TestData.xlsx
+++ b/7rmartSupermarket/src/main/resources/TestData.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\7rmartSupermarket\7rmartSupermarket\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0AEBEB-C5FA-4A0B-8668-966741A254F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0ACB49A5-ACAF-47A2-80FA-0DDBCB60D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{40994166-4464-4826-BD36-AF29AAF9B2B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{40994166-4464-4826-BD36-AF29AAF9B2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageTest" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminLoginCredential" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>Jogn</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953ECE63-BF31-4D12-8573-62D6BDE66345}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -454,4 +454,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00909354-40C3-4D2D-A1FA-944787D839E0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartSupermarket/src/main/resources/TestData.xlsx
+++ b/7rmartSupermarket/src/main/resources/TestData.xlsx
@@ -3,37 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0ACB49A5-ACAF-47A2-80FA-0DDBCB60D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{052D5541-7D4F-4FB5-BE7F-1A7545AD7FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{40994166-4464-4826-BD36-AF29AAF9B2B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{40994166-4464-4826-BD36-AF29AAF9B2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageTest" sheetId="1" r:id="rId1"/>
     <sheet name="AdminLoginCredential" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L7"/>
+  <oleSize ref="A1:L5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -48,6 +37,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Ashh</t>
   </si>
 </sst>
 </file>
@@ -419,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953ECE63-BF31-4D12-8573-62D6BDE66345}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +443,14 @@
         <v>345</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00909354-40C3-4D2D-A1FA-944787D839E0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
